--- a/Curse05/Sample Transaction Table.xlsx
+++ b/Curse05/Sample Transaction Table.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop-PC\Desktop\Datanalytics\Curse05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5339664-6840-4BF8-A959-EBE908B6B525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="transactional-data-format-csv" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Pivot Table 1" sheetId="2" r:id="rId5"/>
+    <sheet name="transactional-data-format-csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot Table 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
   <si>
     <t>date</t>
   </si>
@@ -146,52 +165,59 @@
     <t>SUM of purchase_price</t>
   </si>
   <si>
-    <t>SUM of Calculated Field 1</t>
+    <t>Grand Total</t>
   </si>
   <si>
-    <t>Grand Total</t>
+    <t/>
+  </si>
+  <si>
+    <t>SUM of SUM of Calculated Field 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -201,139 +227,159 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="8">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Desktop-PC" refreshedDate="44853.791156250001" refreshedVersion="8" recordCount="29" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I30" sheet="transactional-data-format-csv"/>
   </cacheSource>
-  <cacheFields>
+  <cacheFields count="10">
     <cacheField name="date" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsDate="1" containsString="0">
-        <d v="2020-08-29T00:00:00Z"/>
-        <d v="2020-05-01T00:00:00Z"/>
-        <d v="2020-12-12T00:00:00Z"/>
-        <d v="2020-02-16T00:00:00Z"/>
-        <d v="2020-12-28T00:00:00Z"/>
-        <d v="2020-10-11T00:00:00Z"/>
-        <d v="2020-06-29T00:00:00Z"/>
-        <d v="2020-11-10T00:00:00Z"/>
-        <d v="2020-02-05T00:00:00Z"/>
-        <d v="2020-04-28T00:00:00Z"/>
-        <d v="2020-01-23T00:00:00Z"/>
-        <d v="2020-10-12T00:00:00Z"/>
-        <d v="2020-07-08T00:00:00Z"/>
-        <d v="2020-10-21T00:00:00Z"/>
-        <d v="2020-12-30T00:00:00Z"/>
-        <d v="2020-09-25T00:00:00Z"/>
-        <d v="2020-08-11T00:00:00Z"/>
-        <d v="2020-09-07T00:00:00Z"/>
-        <d v="2020-07-22T00:00:00Z"/>
-        <d v="2020-04-29T00:00:00Z"/>
-        <d v="2020-03-22T00:00:00Z"/>
-        <d v="2020-06-04T00:00:00Z"/>
-        <d v="2020-02-28T00:00:00Z"/>
-        <d v="2020-06-06T00:00:00Z"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-01-23T00:00:00" maxDate="2020-12-31T00:00:00"/>
     </cacheField>
     <cacheField name="transaction_id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="9900.0"/>
-        <n v="12315.0"/>
-        <n v="9890.0"/>
-        <n v="46915.0"/>
-        <n v="44700.0"/>
-        <n v="12560.0"/>
-        <n v="9640.0"/>
-        <n v="22620.0"/>
-        <n v="49430.0"/>
-        <n v="49075.0"/>
-        <n v="37855.0"/>
-        <n v="1675.0"/>
-        <n v="23435.0"/>
-        <n v="19105.0"/>
-        <n v="48035.0"/>
-        <n v="31615.0"/>
-        <n v="31775.0"/>
-        <n v="21870.0"/>
-        <n v="45400.0"/>
-        <n v="26530.0"/>
-        <n v="14080.0"/>
-        <n v="6340.0"/>
-        <n v="21485.0"/>
-        <n v="24785.0"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1675" maxValue="49430"/>
     </cacheField>
     <cacheField name="customer_id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="1980.0"/>
-        <n v="2463.0"/>
-        <n v="1978.0"/>
-        <n v="9383.0"/>
-        <n v="8940.0"/>
-        <n v="2512.0"/>
-        <n v="1928.0"/>
-        <n v="4524.0"/>
-        <n v="9886.0"/>
-        <n v="9815.0"/>
-        <n v="7571.0"/>
-        <n v="335.0"/>
-        <n v="4687.0"/>
-        <n v="3821.0"/>
-        <n v="9607.0"/>
-        <n v="6323.0"/>
-        <n v="6355.0"/>
-        <n v="4374.0"/>
-        <n v="9080.0"/>
-        <n v="5306.0"/>
-        <n v="2816.0"/>
-        <n v="1268.0"/>
-        <n v="4297.0"/>
-        <n v="4957.0"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="335" maxValue="9886"/>
     </cacheField>
     <cacheField name="product" numFmtId="0">
-      <sharedItems>
+      <sharedItems count="12">
         <s v="fan"/>
         <s v="lamp"/>
         <s v="bed"/>
@@ -349,175 +395,363 @@
       </sharedItems>
     </cacheField>
     <cacheField name="product_code" numFmtId="0">
-      <sharedItems>
-        <s v="SKU83503"/>
-        <s v="SKU95363"/>
-        <s v="SKU74796"/>
-        <s v="SKU31871"/>
-        <s v="SKU19092"/>
-        <s v="SKU99037"/>
-        <s v="SKU97721"/>
-        <s v="SKU15757"/>
-        <s v="SKU40294"/>
-        <s v="SKU99664"/>
-        <s v="SKU77417"/>
-        <s v="SKU13351"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="product_color" numFmtId="0">
-      <sharedItems>
-        <s v="brass"/>
-        <s v="white"/>
-        <s v="black"/>
-        <s v="brown"/>
-        <s v="grey"/>
-        <s v="blue"/>
-        <s v="purple"/>
-        <s v="beige"/>
-        <s v="green"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="product_price" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1">
-        <n v="13.99"/>
-        <n v="45.99"/>
-        <n v="799.99"/>
-        <n v="1000.0"/>
-        <n v="89.85"/>
-        <n v="9.99"/>
-        <n v="199.95"/>
-        <n v="58.89"/>
-        <n v="169.95"/>
-        <n v="234.5"/>
-        <n v="399.95"/>
-        <n v="299.99"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.99" maxValue="1000"/>
     </cacheField>
     <cacheField name="purchase_size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="2.0"/>
-        <n v="1.0"/>
-        <n v="5.0"/>
-        <n v="3.0"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="purchase_price" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1">
-        <n v="27.98"/>
-        <n v="13.99"/>
-        <n v="160.96499999999997"/>
-        <n v="799.99"/>
-        <n v="1000.0"/>
-        <n v="269.54999999999995"/>
-        <n v="179.7"/>
-        <n v="89.85"/>
-        <n v="19.98"/>
-        <n v="199.95"/>
-        <n v="58.89"/>
-        <n v="169.95"/>
-        <n v="234.5"/>
-        <n v="399.95"/>
-        <n v="299.99"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.99" maxValue="1000"/>
     </cacheField>
-    <cacheField name="SUM of Calculated Field 1" formula="0" databaseField="0"/>
+    <cacheField name="SUM of Calculated Field 1" numFmtId="0" formula="0" databaseField="0"/>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="29">
+  <r>
+    <d v="2020-08-29T00:00:00"/>
+    <n v="9900"/>
+    <n v="1980"/>
+    <x v="0"/>
+    <s v="SKU83503"/>
+    <s v="brass"/>
+    <n v="13.99"/>
+    <n v="2"/>
+    <n v="27.98"/>
+  </r>
+  <r>
+    <d v="2020-05-01T00:00:00"/>
+    <n v="12315"/>
+    <n v="2463"/>
+    <x v="0"/>
+    <s v="SKU83503"/>
+    <s v="brass"/>
+    <n v="13.99"/>
+    <n v="2"/>
+    <n v="27.98"/>
+  </r>
+  <r>
+    <d v="2020-12-12T00:00:00"/>
+    <n v="9890"/>
+    <n v="1978"/>
+    <x v="0"/>
+    <s v="SKU83503"/>
+    <s v="white"/>
+    <n v="13.99"/>
+    <n v="1"/>
+    <n v="13.99"/>
+  </r>
+  <r>
+    <d v="2020-02-16T00:00:00"/>
+    <n v="46915"/>
+    <n v="9383"/>
+    <x v="0"/>
+    <s v="SKU83503"/>
+    <s v="black"/>
+    <n v="13.99"/>
+    <n v="1"/>
+    <n v="13.99"/>
+  </r>
+  <r>
+    <d v="2020-12-28T00:00:00"/>
+    <n v="44700"/>
+    <n v="8940"/>
+    <x v="0"/>
+    <s v="SKU83503"/>
+    <s v="brass"/>
+    <n v="13.99"/>
+    <n v="2"/>
+    <n v="27.98"/>
+  </r>
+  <r>
+    <d v="2020-12-28T00:00:00"/>
+    <n v="44700"/>
+    <n v="8940"/>
+    <x v="1"/>
+    <s v="SKU95363"/>
+    <s v="brass"/>
+    <n v="45.99"/>
+    <n v="5"/>
+    <n v="160.96499999999997"/>
+  </r>
+  <r>
+    <d v="2020-10-11T00:00:00"/>
+    <n v="12560"/>
+    <n v="2512"/>
+    <x v="2"/>
+    <s v="SKU74796"/>
+    <s v="brown"/>
+    <n v="799.99"/>
+    <n v="1"/>
+    <n v="799.99"/>
+  </r>
+  <r>
+    <d v="2020-06-29T00:00:00"/>
+    <n v="9640"/>
+    <n v="1928"/>
+    <x v="3"/>
+    <s v="SKU31871"/>
+    <s v="grey"/>
+    <n v="1000"/>
+    <n v="1"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2020-11-10T00:00:00"/>
+    <n v="22620"/>
+    <n v="4524"/>
+    <x v="3"/>
+    <s v="SKU31871"/>
+    <s v="grey"/>
+    <n v="1000"/>
+    <n v="1"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2020-02-05T00:00:00"/>
+    <n v="49430"/>
+    <n v="9886"/>
+    <x v="3"/>
+    <s v="SKU31871"/>
+    <s v="grey"/>
+    <n v="1000"/>
+    <n v="1"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2020-04-28T00:00:00"/>
+    <n v="49075"/>
+    <n v="9815"/>
+    <x v="3"/>
+    <s v="SKU31871"/>
+    <s v="blue"/>
+    <n v="1000"/>
+    <n v="1"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2020-01-23T00:00:00"/>
+    <n v="37855"/>
+    <n v="7571"/>
+    <x v="3"/>
+    <s v="SKU31871"/>
+    <s v="purple"/>
+    <n v="1000"/>
+    <n v="1"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2020-02-16T00:00:00"/>
+    <n v="9900"/>
+    <n v="1980"/>
+    <x v="3"/>
+    <s v="SKU31871"/>
+    <s v="white"/>
+    <n v="1000"/>
+    <n v="1"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2020-10-12T00:00:00"/>
+    <n v="1675"/>
+    <n v="335"/>
+    <x v="3"/>
+    <s v="SKU31871"/>
+    <s v="white"/>
+    <n v="1000"/>
+    <n v="1"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2020-07-08T00:00:00"/>
+    <n v="23435"/>
+    <n v="4687"/>
+    <x v="3"/>
+    <s v="SKU31871"/>
+    <s v="brown"/>
+    <n v="1000"/>
+    <n v="1"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2020-10-21T00:00:00"/>
+    <n v="19105"/>
+    <n v="3821"/>
+    <x v="3"/>
+    <s v="SKU31871"/>
+    <s v="black"/>
+    <n v="1000"/>
+    <n v="1"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <d v="2020-12-30T00:00:00"/>
+    <n v="48035"/>
+    <n v="9607"/>
+    <x v="4"/>
+    <s v="SKU19092"/>
+    <s v="beige"/>
+    <n v="89.85"/>
+    <n v="3"/>
+    <n v="269.54999999999995"/>
+  </r>
+  <r>
+    <d v="2020-09-25T00:00:00"/>
+    <n v="31615"/>
+    <n v="6323"/>
+    <x v="4"/>
+    <s v="SKU19092"/>
+    <s v="grey"/>
+    <n v="89.85"/>
+    <n v="2"/>
+    <n v="179.7"/>
+  </r>
+  <r>
+    <d v="2020-08-11T00:00:00"/>
+    <n v="31775"/>
+    <n v="6355"/>
+    <x v="4"/>
+    <s v="SKU19092"/>
+    <s v="grey"/>
+    <n v="89.85"/>
+    <n v="1"/>
+    <n v="89.85"/>
+  </r>
+  <r>
+    <d v="2020-09-07T00:00:00"/>
+    <n v="21870"/>
+    <n v="4374"/>
+    <x v="4"/>
+    <s v="SKU19092"/>
+    <s v="beige"/>
+    <n v="89.85"/>
+    <n v="3"/>
+    <n v="269.54999999999995"/>
+  </r>
+  <r>
+    <d v="2020-07-22T00:00:00"/>
+    <n v="45400"/>
+    <n v="9080"/>
+    <x v="5"/>
+    <s v="SKU99037"/>
+    <s v="green"/>
+    <n v="9.99"/>
+    <n v="2"/>
+    <n v="19.98"/>
+  </r>
+  <r>
+    <d v="2020-07-22T00:00:00"/>
+    <n v="45400"/>
+    <n v="9080"/>
+    <x v="6"/>
+    <s v="SKU97721"/>
+    <s v="brass"/>
+    <n v="199.95"/>
+    <n v="1"/>
+    <n v="199.95"/>
+  </r>
+  <r>
+    <d v="2020-07-22T00:00:00"/>
+    <n v="45400"/>
+    <n v="9080"/>
+    <x v="7"/>
+    <s v="SKU15757"/>
+    <s v="brown"/>
+    <n v="58.89"/>
+    <n v="1"/>
+    <n v="58.89"/>
+  </r>
+  <r>
+    <d v="2020-04-29T00:00:00"/>
+    <n v="26530"/>
+    <n v="5306"/>
+    <x v="8"/>
+    <s v="SKU40294"/>
+    <s v="brown"/>
+    <n v="169.95"/>
+    <n v="1"/>
+    <n v="169.95"/>
+  </r>
+  <r>
+    <d v="2020-03-22T00:00:00"/>
+    <n v="14080"/>
+    <n v="2816"/>
+    <x v="8"/>
+    <s v="SKU40294"/>
+    <s v="brown"/>
+    <n v="169.95"/>
+    <n v="1"/>
+    <n v="169.95"/>
+  </r>
+  <r>
+    <d v="2020-06-04T00:00:00"/>
+    <n v="6340"/>
+    <n v="1268"/>
+    <x v="8"/>
+    <s v="SKU40294"/>
+    <s v="white"/>
+    <n v="169.95"/>
+    <n v="1"/>
+    <n v="169.95"/>
+  </r>
+  <r>
+    <d v="2020-02-28T00:00:00"/>
+    <n v="21485"/>
+    <n v="4297"/>
+    <x v="9"/>
+    <s v="SKU99664"/>
+    <s v="black"/>
+    <n v="234.5"/>
+    <n v="1"/>
+    <n v="234.5"/>
+  </r>
+  <r>
+    <d v="2020-06-06T00:00:00"/>
+    <n v="24785"/>
+    <n v="4957"/>
+    <x v="10"/>
+    <s v="SKU77417"/>
+    <s v="beige"/>
+    <n v="399.95"/>
+    <n v="1"/>
+    <n v="399.95"/>
+  </r>
+  <r>
+    <d v="2020-06-06T00:00:00"/>
+    <n v="24785"/>
+    <n v="4957"/>
+    <x v="11"/>
+    <s v="SKU13351"/>
+    <s v="grey"/>
+    <n v="299.99"/>
+    <n v="1"/>
+    <n v="299.99"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 1" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A1:C14" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
-  <pivotFields>
-    <pivotField name="date" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="transaction_id" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="customer_id" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Pivot Table 1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+  <location ref="A1:C15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField name="date" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="transaction_id" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="customer_id" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="product" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items>
+      <items count="13">
         <item x="2"/>
         <item x="7"/>
         <item x="9"/>
@@ -533,100 +767,83 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="product_code" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="product_color" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="product_price" compact="0" numFmtId="165" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="purchase_size" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="purchase_price" dataField="1" compact="0" numFmtId="165" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField name="product_code" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="product_color" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="product_price" compact="0" numFmtId="165" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="purchase_size" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="purchase_price" dataField="1" compact="0" numFmtId="165" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" includeNewItemsInFilter="1" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields>
+  <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <colFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <dataFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
     <dataField name="SUM of purchase_price" fld="8" baseField="0"/>
     <dataField name="SUM of SUM of Calculated Field 1" fld="9" baseField="0"/>
   </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -816,29 +1033,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O906"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.14"/>
-    <col customWidth="1" min="2" max="2" width="13.29"/>
-    <col customWidth="1" min="3" max="3" width="12.57"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="6" width="13.71"/>
-    <col customWidth="1" min="7" max="9" width="16.0"/>
-    <col customWidth="1" min="10" max="20" width="8.71"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="9" width="16" customWidth="1"/>
+    <col min="10" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,15 +1086,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44072.0</v>
+        <v>44072</v>
       </c>
       <c r="B2" s="5">
-        <v>9900.0</v>
+        <v>9900</v>
       </c>
       <c r="C2" s="5">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -890,22 +1109,22 @@
         <v>13.99</v>
       </c>
       <c r="H2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="3">
         <v>27.98</v>
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="B3" s="5">
-        <v>12315.0</v>
+        <v>12315</v>
       </c>
       <c r="C3" s="5">
-        <v>2463.0</v>
+        <v>2463</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -920,21 +1139,21 @@
         <v>13.99</v>
       </c>
       <c r="H3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3">
         <v>27.98</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44177.0</v>
+        <v>44177</v>
       </c>
       <c r="B4" s="5">
-        <v>9890.0</v>
+        <v>9890</v>
       </c>
       <c r="C4" s="5">
-        <v>1978.0</v>
+        <v>1978</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -949,21 +1168,21 @@
         <v>13.99</v>
       </c>
       <c r="H4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
         <v>13.99</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43877.0</v>
+        <v>43877</v>
       </c>
       <c r="B5" s="5">
-        <v>46915.0</v>
+        <v>46915</v>
       </c>
       <c r="C5" s="5">
-        <v>9383.0</v>
+        <v>9383</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -978,21 +1197,21 @@
         <v>13.99</v>
       </c>
       <c r="H5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <v>13.99</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44193.0</v>
+        <v>44193</v>
       </c>
       <c r="B6" s="5">
-        <v>44700.0</v>
+        <v>44700</v>
       </c>
       <c r="C6" s="5">
-        <v>8940.0</v>
+        <v>8940</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -1007,21 +1226,21 @@
         <v>13.99</v>
       </c>
       <c r="H6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3">
         <v>27.98</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>44193.0</v>
+        <v>44193</v>
       </c>
       <c r="B7" s="5">
-        <v>44700.0</v>
+        <v>44700</v>
       </c>
       <c r="C7" s="5">
-        <v>8940.0</v>
+        <v>8940</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -1036,22 +1255,22 @@
         <v>45.99</v>
       </c>
       <c r="H7" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="3">
         <f>229.95*70%</f>
-        <v>160.965</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>160.96499999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44115.0</v>
+        <v>44115</v>
       </c>
       <c r="B8" s="5">
-        <v>12560.0</v>
+        <v>12560</v>
       </c>
       <c r="C8" s="5">
-        <v>2512.0</v>
+        <v>2512</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
@@ -1066,21 +1285,21 @@
         <v>799.99</v>
       </c>
       <c r="H8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3">
         <v>799.99</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>44011.0</v>
+        <v>44011</v>
       </c>
       <c r="B9" s="5">
-        <v>9640.0</v>
+        <v>9640</v>
       </c>
       <c r="C9" s="5">
-        <v>1928.0</v>
+        <v>1928</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -1092,24 +1311,24 @@
         <v>21</v>
       </c>
       <c r="G9" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44145.0</v>
+        <v>44145</v>
       </c>
       <c r="B10" s="5">
-        <v>22620.0</v>
+        <v>22620</v>
       </c>
       <c r="C10" s="5">
-        <v>4524.0</v>
+        <v>4524</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1121,24 +1340,24 @@
         <v>21</v>
       </c>
       <c r="G10" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43866.0</v>
+        <v>43866</v>
       </c>
       <c r="B11" s="5">
-        <v>49430.0</v>
+        <v>49430</v>
       </c>
       <c r="C11" s="5">
-        <v>9886.0</v>
+        <v>9886</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -1150,24 +1369,24 @@
         <v>21</v>
       </c>
       <c r="G11" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43949.0</v>
+        <v>43949</v>
       </c>
       <c r="B12" s="5">
-        <v>49075.0</v>
+        <v>49075</v>
       </c>
       <c r="C12" s="5">
-        <v>9815.0</v>
+        <v>9815</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -1179,24 +1398,24 @@
         <v>22</v>
       </c>
       <c r="G12" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43853.0</v>
+        <v>43853</v>
       </c>
       <c r="B13" s="5">
-        <v>37855.0</v>
+        <v>37855</v>
       </c>
       <c r="C13" s="5">
-        <v>7571.0</v>
+        <v>7571</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -1208,24 +1427,24 @@
         <v>23</v>
       </c>
       <c r="G13" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43877.0</v>
+        <v>43877</v>
       </c>
       <c r="B14" s="5">
-        <v>9900.0</v>
+        <v>9900</v>
       </c>
       <c r="C14" s="5">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -1237,24 +1456,24 @@
         <v>12</v>
       </c>
       <c r="G14" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>44116.0</v>
+        <v>44116</v>
       </c>
       <c r="B15" s="5">
-        <v>1675.0</v>
+        <v>1675</v>
       </c>
       <c r="C15" s="5">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -1266,24 +1485,24 @@
         <v>12</v>
       </c>
       <c r="G15" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44020.0</v>
+        <v>44020</v>
       </c>
       <c r="B16" s="5">
-        <v>23435.0</v>
+        <v>23435</v>
       </c>
       <c r="C16" s="5">
-        <v>4687.0</v>
+        <v>4687</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
@@ -1295,24 +1514,24 @@
         <v>18</v>
       </c>
       <c r="G16" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>44125.0</v>
+        <v>44125</v>
       </c>
       <c r="B17" s="5">
-        <v>19105.0</v>
+        <v>19105</v>
       </c>
       <c r="C17" s="5">
-        <v>3821.0</v>
+        <v>3821</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
@@ -1324,24 +1543,24 @@
         <v>13</v>
       </c>
       <c r="G17" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44195.0</v>
+        <v>44195</v>
       </c>
       <c r="B18" s="5">
-        <v>48035.0</v>
+        <v>48035</v>
       </c>
       <c r="C18" s="5">
-        <v>9607.0</v>
+        <v>9607</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>24</v>
@@ -1356,21 +1575,21 @@
         <v>89.85</v>
       </c>
       <c r="H18" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="3">
         <v>269.54999999999995</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>44099.0</v>
+        <v>44099</v>
       </c>
       <c r="B19" s="5">
-        <v>31615.0</v>
+        <v>31615</v>
       </c>
       <c r="C19" s="5">
-        <v>6323.0</v>
+        <v>6323</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>24</v>
@@ -1385,21 +1604,21 @@
         <v>89.85</v>
       </c>
       <c r="H19" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
         <v>179.7</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>44054.0</v>
+        <v>44054</v>
       </c>
       <c r="B20" s="5">
-        <v>31775.0</v>
+        <v>31775</v>
       </c>
       <c r="C20" s="5">
-        <v>6355.0</v>
+        <v>6355</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>24</v>
@@ -1414,21 +1633,21 @@
         <v>89.85</v>
       </c>
       <c r="H20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <v>89.85</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>44081.0</v>
+        <v>44081</v>
       </c>
       <c r="B21" s="5">
-        <v>21870.0</v>
+        <v>21870</v>
       </c>
       <c r="C21" s="5">
-        <v>4374.0</v>
+        <v>4374</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>24</v>
@@ -1443,21 +1662,21 @@
         <v>89.85</v>
       </c>
       <c r="H21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
         <v>269.54999999999995</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>44034.0</v>
+        <v>44034</v>
       </c>
       <c r="B22" s="5">
-        <v>45400.0</v>
+        <v>45400</v>
       </c>
       <c r="C22" s="5">
-        <v>9080.0</v>
+        <v>9080</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>27</v>
@@ -1472,21 +1691,21 @@
         <v>9.99</v>
       </c>
       <c r="H22" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="3">
         <v>19.98</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>44034.0</v>
+        <v>44034</v>
       </c>
       <c r="B23" s="5">
-        <v>45400.0</v>
+        <v>45400</v>
       </c>
       <c r="C23" s="5">
-        <v>9080.0</v>
+        <v>9080</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>30</v>
@@ -1501,21 +1720,21 @@
         <v>199.95</v>
       </c>
       <c r="H23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
         <v>199.95</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>44034.0</v>
+        <v>44034</v>
       </c>
       <c r="B24" s="5">
-        <v>45400.0</v>
+        <v>45400</v>
       </c>
       <c r="C24" s="5">
-        <v>9080.0</v>
+        <v>9080</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
@@ -1530,21 +1749,21 @@
         <v>58.89</v>
       </c>
       <c r="H24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
         <v>58.89</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43950.0</v>
+        <v>43950</v>
       </c>
       <c r="B25" s="5">
-        <v>26530.0</v>
+        <v>26530</v>
       </c>
       <c r="C25" s="5">
-        <v>5306.0</v>
+        <v>5306</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1559,21 +1778,21 @@
         <v>169.95</v>
       </c>
       <c r="H25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <v>169.95</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43912.0</v>
+        <v>43912</v>
       </c>
       <c r="B26" s="5">
-        <v>14080.0</v>
+        <v>14080</v>
       </c>
       <c r="C26" s="5">
-        <v>2816.0</v>
+        <v>2816</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1588,21 +1807,21 @@
         <v>169.95</v>
       </c>
       <c r="H26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
         <v>169.95</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43986.0</v>
+        <v>43986</v>
       </c>
       <c r="B27" s="5">
-        <v>6340.0</v>
+        <v>6340</v>
       </c>
       <c r="C27" s="5">
-        <v>1268.0</v>
+        <v>1268</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1617,21 +1836,21 @@
         <v>169.95</v>
       </c>
       <c r="H27" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <v>169.95</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43889.0</v>
+        <v>43889</v>
       </c>
       <c r="B28" s="5">
-        <v>21485.0</v>
+        <v>21485</v>
       </c>
       <c r="C28" s="5">
-        <v>4297.0</v>
+        <v>4297</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>36</v>
@@ -1646,21 +1865,21 @@
         <v>234.5</v>
       </c>
       <c r="H28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <v>234.5</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43988.0</v>
+        <v>43988</v>
       </c>
       <c r="B29" s="5">
-        <v>24785.0</v>
+        <v>24785</v>
       </c>
       <c r="C29" s="5">
-        <v>4957.0</v>
+        <v>4957</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1675,21 +1894,21 @@
         <v>399.95</v>
       </c>
       <c r="H29" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
         <v>399.95</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43988.0</v>
+        <v>43988</v>
       </c>
       <c r="B30" s="5">
-        <v>24785.0</v>
+        <v>24785</v>
       </c>
       <c r="C30" s="5">
-        <v>4957.0</v>
+        <v>4957</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>40</v>
@@ -1704,3544 +1923,3568 @@
         <v>299.99</v>
       </c>
       <c r="H30" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
         <v>299.99</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="I36" s="8"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="I37" s="8"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="I38" s="8"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="I39" s="8"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="I40" s="8"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="I69" s="8"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="I70" s="8"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="I75" s="8"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="I78" s="8"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="I79" s="8"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="I81" s="8"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="I84" s="8"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="I85" s="8"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="I86" s="8"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="I87" s="8"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="I88" s="8"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="I89" s="8"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="I90" s="8"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="I91" s="8"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="I92" s="8"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="I93" s="8"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="I94" s="8"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="I95" s="8"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="I96" s="8"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="I97" s="8"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="I98" s="8"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="I99" s="8"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="I100" s="8"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="I101" s="8"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="I102" s="8"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="I103" s="8"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="I104" s="8"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="I105" s="8"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="I106" s="8"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="I107" s="8"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="I108" s="8"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="I109" s="8"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="I110" s="8"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="I111" s="8"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="I112" s="8"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="I113" s="8"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="I114" s="8"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="I115" s="8"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="I116" s="8"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="I117" s="8"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="I118" s="8"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="I119" s="8"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="I120" s="8"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="I121" s="8"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="I122" s="8"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="I123" s="8"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="I125" s="8"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="I126" s="8"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="I127" s="8"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="I128" s="8"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="I129" s="8"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="I130" s="8"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="I131" s="8"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="I132" s="8"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="I133" s="8"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="I134" s="8"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="I135" s="8"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="I136" s="8"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="I137" s="8"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="I138" s="8"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="I139" s="8"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="I140" s="8"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="I141" s="8"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="I142" s="8"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="I143" s="8"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="I144" s="8"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="I145" s="8"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="I146" s="8"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="I148" s="8"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="I149" s="8"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="I150" s="8"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="I151" s="8"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="I152" s="8"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="I153" s="8"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="I154" s="8"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="I155" s="8"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="I156" s="8"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="I157" s="8"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="I158" s="8"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="I159" s="8"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="I160" s="8"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="I161" s="8"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="I162" s="8"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="I163" s="8"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="I164" s="8"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="I165" s="8"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="I166" s="8"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="I167" s="8"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="I168" s="8"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="I169" s="8"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="I170" s="8"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="I171" s="8"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="I172" s="8"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="I173" s="8"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="I174" s="8"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="I175" s="8"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="I176" s="8"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="I177" s="8"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="I178" s="8"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="I179" s="8"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="I180" s="8"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="I181" s="8"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="I182" s="8"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="I183" s="8"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="I184" s="8"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="I185" s="8"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="I186" s="8"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="I187" s="8"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="I188" s="8"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="I189" s="8"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="I190" s="8"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="I191" s="8"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="I192" s="8"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="I193" s="8"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="I194" s="8"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="I195" s="8"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="I196" s="8"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="I197" s="8"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="I198" s="8"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="I199" s="8"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="I200" s="8"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="I201" s="8"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="I202" s="8"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="I203" s="8"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="I204" s="8"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="I205" s="8"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="I206" s="8"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="I207" s="8"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="I208" s="8"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="I209" s="8"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="I210" s="8"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="I211" s="8"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="I212" s="8"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="I213" s="8"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="I214" s="8"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="I215" s="8"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="I216" s="8"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="I217" s="8"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="I218" s="8"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="I219" s="8"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="I220" s="8"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="I221" s="8"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="I222" s="8"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="I223" s="8"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="I224" s="8"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="I225" s="8"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="I226" s="8"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="I227" s="8"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="I228" s="8"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="I229" s="8"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="I230" s="8"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="I231" s="8"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="I232" s="8"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="I233" s="8"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="I234" s="8"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="I235" s="8"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="I236" s="8"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="I237" s="8"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="I238" s="8"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="I239" s="8"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="I240" s="8"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="I241" s="8"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="I242" s="8"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="I243" s="8"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="I244" s="8"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="I245" s="8"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="I246" s="8"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="I247" s="8"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="I248" s="8"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="I249" s="8"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="I250" s="8"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="I251" s="8"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="I252" s="8"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="I253" s="8"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="I254" s="8"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="I255" s="8"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="I256" s="8"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="I257" s="8"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="I258" s="8"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="I259" s="8"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="I260" s="8"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="I261" s="8"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="I262" s="8"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="I263" s="8"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="I264" s="8"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="I265" s="8"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="I266" s="8"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="I267" s="8"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="I268" s="8"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="I269" s="8"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="I270" s="8"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="I271" s="8"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="I272" s="8"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="I273" s="8"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="I274" s="8"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="I275" s="8"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="I276" s="8"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="I277" s="8"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="I278" s="8"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="I279" s="8"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="I280" s="8"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="I281" s="8"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="I282" s="8"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="I283" s="8"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="I284" s="8"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="I285" s="8"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="I286" s="8"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="I287" s="8"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="I288" s="8"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="I289" s="8"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="I290" s="8"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="I291" s="8"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="I292" s="8"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="I293" s="8"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="I294" s="8"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="I295" s="8"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="I296" s="8"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="I297" s="8"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="I298" s="8"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="I299" s="8"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="I300" s="8"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="I301" s="8"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="I302" s="8"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="I303" s="8"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="I304" s="8"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="I305" s="8"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="I306" s="8"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="I307" s="8"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="I308" s="8"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="I309" s="8"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="I310" s="8"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="I311" s="8"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="I312" s="8"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="I313" s="8"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="I314" s="8"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="I315" s="8"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="I316" s="8"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="I317" s="8"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="I318" s="8"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="I319" s="8"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="I320" s="8"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="I321" s="8"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="I322" s="8"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="I323" s="8"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="I324" s="8"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="I325" s="8"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="I326" s="8"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="I327" s="8"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="I328" s="8"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="I329" s="8"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="I330" s="8"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="I331" s="8"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="I332" s="8"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="I333" s="8"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="I334" s="8"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="I335" s="8"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="I336" s="8"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="I337" s="8"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="I338" s="8"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="I339" s="8"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="I340" s="8"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="I341" s="8"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="I342" s="8"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="I343" s="8"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="I344" s="8"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="I345" s="8"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="I346" s="8"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="I347" s="8"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="I348" s="8"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="I349" s="8"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="I350" s="8"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="I351" s="8"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="I352" s="8"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="I353" s="8"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="I354" s="8"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="I355" s="8"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="I356" s="8"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="I357" s="8"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="I358" s="8"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="I359" s="8"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="I360" s="8"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="I361" s="8"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="I362" s="8"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="I363" s="8"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="I364" s="8"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="I365" s="8"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="I366" s="8"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="I367" s="8"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="I368" s="8"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="I369" s="8"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="I370" s="8"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="I371" s="8"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="I372" s="8"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="I373" s="8"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="I374" s="8"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="I375" s="8"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="I376" s="8"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="I377" s="8"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="I378" s="8"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="I379" s="8"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="I380" s="8"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="I381" s="8"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="I382" s="8"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="I383" s="8"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="I384" s="8"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="I385" s="8"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="I386" s="8"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="I387" s="8"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="I388" s="8"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="I389" s="8"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="I390" s="8"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="I391" s="8"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="I392" s="8"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="I393" s="8"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="I394" s="8"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="I395" s="8"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="I396" s="8"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="I397" s="8"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="I398" s="8"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="I399" s="8"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="I400" s="8"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="I401" s="8"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="I402" s="8"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="I403" s="8"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="I404" s="8"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="I405" s="8"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="I406" s="8"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="I407" s="8"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="I408" s="8"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="I409" s="8"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="I410" s="8"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="I411" s="8"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="I412" s="8"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="I413" s="8"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="I414" s="8"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="I415" s="8"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="I416" s="8"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="I417" s="8"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="I418" s="8"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="I419" s="8"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="I420" s="8"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="I421" s="8"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="I422" s="8"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="I423" s="8"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="I424" s="8"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="I425" s="8"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="I426" s="8"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="I427" s="8"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="I428" s="8"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="I429" s="8"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="I430" s="8"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="I431" s="8"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="I432" s="8"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="I433" s="8"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="I434" s="8"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="I435" s="8"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="I436" s="8"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="I437" s="8"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="I438" s="8"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="I439" s="8"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="I440" s="8"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="I441" s="8"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="I442" s="8"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="I443" s="8"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="I444" s="8"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="I445" s="8"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="I446" s="8"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="I447" s="8"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="I448" s="8"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="I449" s="8"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="I450" s="8"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="I451" s="8"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="I452" s="8"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="I453" s="8"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="I454" s="8"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="I455" s="8"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="I456" s="8"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="I457" s="8"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="I458" s="8"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="I459" s="8"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="I460" s="8"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="I461" s="8"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="I462" s="8"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="I463" s="8"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="I464" s="8"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="I465" s="8"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="I466" s="8"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="I467" s="8"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="I468" s="8"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="I469" s="8"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="I470" s="8"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="I471" s="8"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="I472" s="8"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="I473" s="8"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="I474" s="8"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="I475" s="8"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="I476" s="8"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="I477" s="8"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="I478" s="8"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="I479" s="8"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="I480" s="8"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="I481" s="8"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="I482" s="8"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="I483" s="8"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="I484" s="8"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="I485" s="8"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="I486" s="8"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="I487" s="8"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="I488" s="8"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="I489" s="8"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="I490" s="8"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="I491" s="8"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="I492" s="8"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="I493" s="8"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="I494" s="8"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="I495" s="8"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="I496" s="8"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="I497" s="8"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="I498" s="8"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="I499" s="8"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="I500" s="8"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="I501" s="8"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="I502" s="8"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="I503" s="8"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="I504" s="8"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="I505" s="8"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="I506" s="8"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="I507" s="8"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="I508" s="8"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="I509" s="8"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="I510" s="8"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="I511" s="8"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="I512" s="8"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="I513" s="8"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="I514" s="8"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="I515" s="8"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="I516" s="8"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="I517" s="8"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="I518" s="8"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="I519" s="8"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="I520" s="8"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="I521" s="8"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="I522" s="8"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="I523" s="8"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="I524" s="8"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="I525" s="8"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="I526" s="8"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="I527" s="8"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="I528" s="8"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="I529" s="8"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="I530" s="8"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="I531" s="8"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="I532" s="8"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="I533" s="8"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="I534" s="8"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="I535" s="8"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="I536" s="8"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="I537" s="8"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="I538" s="8"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="I539" s="8"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="I540" s="8"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="I541" s="8"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="I542" s="8"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="I543" s="8"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="I544" s="8"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="I545" s="8"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="I546" s="8"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="I547" s="8"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="I548" s="8"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="I549" s="8"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="I550" s="8"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="I551" s="8"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="I552" s="8"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="I553" s="8"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="I554" s="8"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="I555" s="8"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="I556" s="8"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="I557" s="8"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="I558" s="8"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="I559" s="8"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="I560" s="8"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="I561" s="8"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="I562" s="8"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="I563" s="8"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="I564" s="8"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="I565" s="8"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="I566" s="8"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="I567" s="8"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="I568" s="8"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="I569" s="8"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="I570" s="8"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="I571" s="8"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="I572" s="8"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="I573" s="8"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="I574" s="8"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="I575" s="8"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="I576" s="8"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="I577" s="8"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="I578" s="8"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="I579" s="8"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="I580" s="8"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="I581" s="8"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="I582" s="8"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="I583" s="8"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="I584" s="8"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="I585" s="8"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="I586" s="8"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="I587" s="8"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="I588" s="8"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="I589" s="8"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="I590" s="8"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="I591" s="8"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="I592" s="8"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="I593" s="8"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="I594" s="8"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="I595" s="8"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="I596" s="8"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="I597" s="8"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="I598" s="8"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="I599" s="8"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="I600" s="8"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="I601" s="8"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="I602" s="8"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="I603" s="8"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="I604" s="8"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="I605" s="8"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="I606" s="8"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="I607" s="8"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="I608" s="8"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="I609" s="8"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="I610" s="8"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="I611" s="8"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="I612" s="8"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="I613" s="8"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="I614" s="8"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="I615" s="8"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="I616" s="8"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="I617" s="8"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="I618" s="8"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="I619" s="8"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="I620" s="8"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="I621" s="8"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="I622" s="8"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="I623" s="8"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="I624" s="8"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="I625" s="8"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="I626" s="8"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="I627" s="8"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="I628" s="8"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="I629" s="8"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="I630" s="8"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="I631" s="8"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="I632" s="8"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="I633" s="8"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="I634" s="8"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="I635" s="8"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="I636" s="8"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="I637" s="8"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="I638" s="8"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="I639" s="8"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="I640" s="8"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="I641" s="8"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="I642" s="8"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="I643" s="8"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="I644" s="8"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="I645" s="8"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="I646" s="8"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="I647" s="8"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="I648" s="8"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="I649" s="8"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="I650" s="8"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="I651" s="8"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="I652" s="8"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="I653" s="8"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="I654" s="8"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="I655" s="8"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="I656" s="8"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="I657" s="8"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="I658" s="8"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="I659" s="8"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="I660" s="8"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="I661" s="8"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="I662" s="8"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="I663" s="8"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="I664" s="8"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="I665" s="8"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="I666" s="8"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="I667" s="8"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="I668" s="8"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="I669" s="8"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="I670" s="8"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="I671" s="8"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="I672" s="8"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="I673" s="8"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="I674" s="8"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="I675" s="8"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="I676" s="8"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="I677" s="8"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="I678" s="8"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="I679" s="8"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="I680" s="8"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="I681" s="8"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="I682" s="8"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="I683" s="8"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="I684" s="8"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="I685" s="8"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="I686" s="8"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="I687" s="8"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="I688" s="8"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="I689" s="8"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="I690" s="8"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="I691" s="8"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="I692" s="8"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="I693" s="8"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="I694" s="8"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="I695" s="8"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="I696" s="8"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="I697" s="8"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="I698" s="8"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="I699" s="8"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="I700" s="8"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="I701" s="8"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="I702" s="8"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="I703" s="8"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="I704" s="8"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="I705" s="8"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="I706" s="8"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="I707" s="8"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="I708" s="8"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="I709" s="8"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="I710" s="8"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="I711" s="8"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="I712" s="8"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="I713" s="8"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="I714" s="8"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="I715" s="8"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="I716" s="8"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="I717" s="8"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="I718" s="8"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="I719" s="8"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="I720" s="8"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="I721" s="8"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="I722" s="8"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="I723" s="8"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="I724" s="8"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="I725" s="8"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="I726" s="8"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="I727" s="8"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="I728" s="8"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="I729" s="8"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="I730" s="8"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="I731" s="8"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="I732" s="8"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="I733" s="8"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="I734" s="8"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="I735" s="8"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="I736" s="8"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="I737" s="8"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="I738" s="8"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="I739" s="8"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="I740" s="8"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="I741" s="8"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="I742" s="8"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="I743" s="8"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="I744" s="8"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="I745" s="8"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="I746" s="8"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="I747" s="8"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="I748" s="8"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="I749" s="8"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="I750" s="8"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="I751" s="8"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="I752" s="8"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="I753" s="8"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="I754" s="8"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="I755" s="8"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="I756" s="8"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="I757" s="8"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="I758" s="8"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="I759" s="8"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="I760" s="8"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="I761" s="8"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="I762" s="8"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="I763" s="8"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="I764" s="8"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="I765" s="8"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="I766" s="8"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="I767" s="8"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="I768" s="8"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="I769" s="8"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="I770" s="8"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="I771" s="8"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="I772" s="8"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="I773" s="8"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="I774" s="8"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="I775" s="8"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="I776" s="8"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="I777" s="8"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="I778" s="8"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="I779" s="8"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="I780" s="8"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="I781" s="8"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="I782" s="8"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="I783" s="8"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="I784" s="8"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="I785" s="8"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="I786" s="8"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="I787" s="8"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="I788" s="8"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="I789" s="8"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="I790" s="8"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="I791" s="8"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="I792" s="8"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="I793" s="8"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="I794" s="8"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="I795" s="8"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="I796" s="8"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="I797" s="8"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="I798" s="8"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="I799" s="8"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="I800" s="8"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="I801" s="8"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="I802" s="8"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="I803" s="8"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="I804" s="8"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="I805" s="8"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="I806" s="8"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="I807" s="8"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="I808" s="8"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="I809" s="8"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="I810" s="8"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="I811" s="8"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="I812" s="8"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="I813" s="8"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="I814" s="8"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="I815" s="8"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="I816" s="8"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="I817" s="8"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="I818" s="8"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="I819" s="8"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="I820" s="8"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="I821" s="8"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="I822" s="8"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="I823" s="8"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="I824" s="8"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="I825" s="8"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="I826" s="8"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="I827" s="8"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="I828" s="8"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="I829" s="8"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="I830" s="8"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="I831" s="8"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="I832" s="8"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="I833" s="8"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="I834" s="8"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="I835" s="8"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="I836" s="8"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="I837" s="8"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="I838" s="8"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="I839" s="8"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="I840" s="8"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="I841" s="8"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="I842" s="8"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="I843" s="8"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="I844" s="8"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="I845" s="8"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="I846" s="8"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="I847" s="8"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="I848" s="8"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="I849" s="8"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="I850" s="8"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="I851" s="8"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="I852" s="8"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="I853" s="8"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="I854" s="8"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="I855" s="8"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="I856" s="8"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="I857" s="8"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="I858" s="8"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="I859" s="8"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="I860" s="8"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="I861" s="8"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="I862" s="8"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="I863" s="8"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="I864" s="8"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="I865" s="8"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="I866" s="8"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="I867" s="8"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="I868" s="8"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="I869" s="8"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="I870" s="8"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="I871" s="8"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="I872" s="8"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="I873" s="8"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="I874" s="8"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="I875" s="8"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="I876" s="8"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="I877" s="8"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="I878" s="8"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="I879" s="8"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="I880" s="8"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="I881" s="8"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="I882" s="8"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="I883" s="8"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="I884" s="8"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="I885" s="8"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="I886" s="8"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="I887" s="8"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="I888" s="8"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="I889" s="8"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="I890" s="8"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="I891" s="8"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="I892" s="8"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="I893" s="8"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="I894" s="8"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="I895" s="8"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="I896" s="8"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="I897" s="8"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="I898" s="8"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="I899" s="8"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="I900" s="8"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="I901" s="8"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="I902" s="8"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="I903" s="8"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="I904" s="8"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="I905" s="8"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="I906" s="8"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14">
+        <v>799.99</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -5251,7 +5494,16 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="17">
+        <v>58.89</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -5261,7 +5513,16 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="17">
+        <v>234.5</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -5271,7 +5532,16 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="17">
+        <v>399.95</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5281,7 +5551,16 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17">
+        <v>9000</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5291,7 +5570,16 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="17">
+        <v>509.84999999999997</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5301,7 +5589,16 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17">
+        <v>111.92</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -5311,7 +5608,16 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="17">
+        <v>160.96499999999997</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -5321,7 +5627,16 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17">
+        <v>199.95</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5331,7 +5646,16 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="17">
+        <v>299.99</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5341,7 +5665,16 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="17">
+        <v>808.64999999999986</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5351,7 +5684,16 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="17">
+        <v>19.98</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5361,9 +5703,16 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="20">
+        <v>12604.635</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5374,6 +5723,6 @@
       <c r="K15" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>